--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -224,6 +224,330 @@
   </si>
   <si>
     <t>2198-1212-02</t>
+  </si>
+  <si>
+    <t>ШипуноваЕ.А.</t>
+  </si>
+  <si>
+    <t>1852(24)</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>B-133</t>
+  </si>
+  <si>
+    <t>КирилловаТ.В.</t>
+  </si>
+  <si>
+    <t>2072,24</t>
+  </si>
+  <si>
+    <t>73,05</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>CP-137</t>
+  </si>
+  <si>
+    <t>2806,8</t>
+  </si>
+  <si>
+    <t>131,63</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>N-3</t>
+  </si>
+  <si>
+    <t>1435,01</t>
+  </si>
+  <si>
+    <t>36,07</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>N-4</t>
+  </si>
+  <si>
+    <t>1415,01</t>
+  </si>
+  <si>
+    <t>34,8</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>C-94</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>136,9</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>C-90</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>B-132</t>
+  </si>
+  <si>
+    <t>73,13</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>R-417</t>
+  </si>
+  <si>
+    <t>БубырьМ.Е.</t>
+  </si>
+  <si>
+    <t>1448,17</t>
+  </si>
+  <si>
+    <t>20,43</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>R-416</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>R-415</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>33,73</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>R-414</t>
+  </si>
+  <si>
+    <t>1450,86</t>
+  </si>
+  <si>
+    <t>26,53</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>R-412</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>51,65</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>R-411</t>
+  </si>
+  <si>
+    <t>35,27</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>R-409</t>
+  </si>
+  <si>
+    <t>1450,87</t>
+  </si>
+  <si>
+    <t>23,66</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>R-407</t>
+  </si>
+  <si>
+    <t>1448,15</t>
+  </si>
+  <si>
+    <t>23,47</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>R-406</t>
+  </si>
+  <si>
+    <t>26,51</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>H-16</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>54,75</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>H-45</t>
+  </si>
+  <si>
+    <t>КирилловаT.В.</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>7,17</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>H-46</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>6,96</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>H-47</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>7,24</t>
+  </si>
+  <si>
+    <t>1852(20)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>N-5</t>
+  </si>
+  <si>
+    <t>СтародубовА.А.</t>
+  </si>
+  <si>
+    <t>4061,91</t>
+  </si>
+  <si>
+    <t>77,08</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>N-6</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>4278,22</t>
+  </si>
+  <si>
+    <t>85,18</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>4437,56</t>
+  </si>
+  <si>
+    <t>87,25</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>N-2</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>CP-124</t>
+  </si>
+  <si>
+    <t>1023,63</t>
+  </si>
+  <si>
+    <t>226,95</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>4345</t>
+  </si>
+  <si>
+    <t>107,5</t>
+  </si>
+  <si>
+    <t>1852-1231-20</t>
+  </si>
+  <si>
+    <t>1852-1231-24</t>
+  </si>
+  <si>
+    <t>531и1</t>
+  </si>
+  <si>
+    <t>531и10</t>
+  </si>
+  <si>
+    <t>531и11</t>
   </si>
 </sst>
 </file>
@@ -648,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -660,7 +984,7 @@
     <col min="2" max="2" width="25.9693341936384" customWidth="1" style="2"/>
     <col min="3" max="3" width="9.140625" customWidth="1" style="2"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="14.792346409389" customWidth="1" style="2"/>
+    <col min="5" max="5" width="15.7949502127511" customWidth="1" style="2"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
     <col min="7" max="7" width="14.9652437482561" customWidth="1" style="2"/>
     <col min="8" max="8" width="31.6504167829241" customWidth="1" style="2"/>
@@ -3718,6 +4042,6974 @@
       </c>
       <c r="H118" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H287" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H289" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H291" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H299" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H301" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G303" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H303" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H305" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H319" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H321" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H339" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H357" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H359" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H377" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H383" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H385" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -548,6 +548,21 @@
   </si>
   <si>
     <t>531и11</t>
+  </si>
+  <si>
+    <t>1852(28)</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>PU-40</t>
+  </si>
+  <si>
+    <t>5208</t>
+  </si>
+  <si>
+    <t>79,29</t>
   </si>
 </sst>
 </file>
@@ -972,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -11009,6 +11024,58 @@
         <v>15</v>
       </c>
       <c r="H386" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H388" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -563,6 +563,30 @@
   </si>
   <si>
     <t>79,29</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>G-6</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>32,24</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>G-23</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>36,33</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H388"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -11077,6 +11101,110 @@
       </c>
       <c r="H388" s="5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H389" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -587,6 +587,24 @@
   </si>
   <si>
     <t>36,33</t>
+  </si>
+  <si>
+    <t>2197(06)</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>ОГ-25</t>
+  </si>
+  <si>
+    <t>Половинкин</t>
+  </si>
+  <si>
+    <t>3111,27</t>
+  </si>
+  <si>
+    <t>39,33</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H392"/>
+  <dimension ref="A1:H393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -11205,6 +11223,32 @@
       </c>
       <c r="H392" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H393" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -605,6 +605,75 @@
   </si>
   <si>
     <t>39,33</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>C-62</t>
+  </si>
+  <si>
+    <t>КозыреваЮ.В.</t>
+  </si>
+  <si>
+    <t>7595</t>
+  </si>
+  <si>
+    <t>853,29</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>C-57</t>
+  </si>
+  <si>
+    <t>10805</t>
+  </si>
+  <si>
+    <t>697,41</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>АндрюшкинаО.П.</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>91,18</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>PC-2</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>97,58</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>B-14</t>
+  </si>
+  <si>
+    <t>СторожиловА.С.</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>44,78</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H393"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -1041,7 +1110,7 @@
     <col min="2" max="2" width="25.9693341936384" customWidth="1" style="2"/>
     <col min="3" max="3" width="9.140625" customWidth="1" style="2"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="15.7949502127511" customWidth="1" style="2"/>
+    <col min="5" max="5" width="17.4983542306083" customWidth="1" style="2"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
     <col min="7" max="7" width="14.9652437482561" customWidth="1" style="2"/>
     <col min="8" max="8" width="31.6504167829241" customWidth="1" style="2"/>
@@ -11248,6 +11317,136 @@
         <v>195</v>
       </c>
       <c r="H393" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H395" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H397" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H398" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -674,6 +674,78 @@
   </si>
   <si>
     <t>44,78</t>
+  </si>
+  <si>
+    <t>2197(09)</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>К-9</t>
+  </si>
+  <si>
+    <t>ВолобуевА.В.</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>751,21</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Б-140</t>
+  </si>
+  <si>
+    <t>5163</t>
+  </si>
+  <si>
+    <t>472,63</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>К-20</t>
+  </si>
+  <si>
+    <t>12850</t>
+  </si>
+  <si>
+    <t>1728,01</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>К-4</t>
+  </si>
+  <si>
+    <t>14307</t>
+  </si>
+  <si>
+    <t>2442,96</t>
+  </si>
+  <si>
+    <t>2208(06)</t>
+  </si>
+  <si>
+    <t>М-2</t>
+  </si>
+  <si>
+    <t>ШергинЮ.А.</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>2197-123-09</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -11448,6 +11520,474 @@
       </c>
       <c r="H398" s="5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H399" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H401" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H403" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G405" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H405" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H407" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H409" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H411" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H413" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H415" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -746,6 +746,102 @@
   </si>
   <si>
     <t>2197-123-09</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Б-101</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>33,28</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Б-112</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>30,73</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Б-57</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>521,24</t>
+  </si>
+  <si>
+    <t>СШГС</t>
+  </si>
+  <si>
+    <t>Субподряд</t>
+  </si>
+  <si>
+    <t>Приходный ордер</t>
+  </si>
+  <si>
+    <t>СШГЦ</t>
+  </si>
+  <si>
+    <t>СЗМК</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Б-45</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>152,6</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Б-102</t>
+  </si>
+  <si>
+    <t>5660</t>
+  </si>
+  <si>
+    <t>553,89</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Б-103</t>
+  </si>
+  <si>
+    <t>205,23</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Б-104</t>
+  </si>
+  <si>
+    <t>558,16</t>
+  </si>
+  <si>
+    <t>ШКГЕ</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H416"/>
+  <dimension ref="A1:H452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -11988,6 +12084,942 @@
       </c>
       <c r="H416" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H417" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H419" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H421" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H423" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H425" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H427" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H429" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H431" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H433" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H441" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H443" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H444" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E445" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H445" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H446" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G447" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H447" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G448" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H448" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G449" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H449" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H451" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -842,6 +842,102 @@
   </si>
   <si>
     <t>ШКГЕ</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Б-105</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>20,36</t>
+  </si>
+  <si>
+    <t>ШГКС</t>
+  </si>
+  <si>
+    <t>Завершенный</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Б-106</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>39,26</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Б-107</t>
+  </si>
+  <si>
+    <t>2905</t>
+  </si>
+  <si>
+    <t>59,36</t>
+  </si>
+  <si>
+    <t>59,31</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Б-108</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>46,35</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Б-109</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Б-110</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>61,93</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Б-111</t>
+  </si>
+  <si>
+    <t>31,71</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Б-113</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>42,85</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H452"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -13020,6 +13116,656 @@
       </c>
       <c r="H452" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G453" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H453" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H454" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H455" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H456" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G457" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H457" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H458" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G459" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H459" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D460" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H461" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H463" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H465" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H467" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G469" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H469" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D470" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D471" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E471" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H471" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H473" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H475" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G477" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H477" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -938,6 +938,42 @@
   </si>
   <si>
     <t>42,85</t>
+  </si>
+  <si>
+    <t>2222(09)</t>
+  </si>
+  <si>
+    <t>Р‘-133</t>
+  </si>
+  <si>
+    <t>Р’РѕР»РѕР±СѓРµРІРђ.Р’.</t>
+  </si>
+  <si>
+    <t>42,88</t>
+  </si>
+  <si>
+    <t>42,86</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Б-114</t>
+  </si>
+  <si>
+    <t>120,67</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>wwwЦw</t>
+  </si>
+  <si>
+    <t>ЦЦЦЦ</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H477"/>
+  <dimension ref="A1:H579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -1374,7 +1410,7 @@
     <col min="2" max="2" width="25.9693341936384" customWidth="1" style="2"/>
     <col min="3" max="3" width="9.140625" customWidth="1" style="2"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="17.4983542306083" customWidth="1" style="2"/>
+    <col min="5" max="5" width="22.277090890067" customWidth="1" style="2"/>
     <col min="6" max="6" width="9.140625" customWidth="1" style="2"/>
     <col min="7" max="7" width="14.9652437482561" customWidth="1" style="2"/>
     <col min="8" max="8" width="31.6504167829241" customWidth="1" style="2"/>
@@ -13766,6 +13802,2658 @@
       </c>
       <c r="H477" s="5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G479" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H479" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G481" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H481" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G483" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H483" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H487" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H491" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H493" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H495" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H497" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H499" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G501" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H501" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G503" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H503" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G505" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H505" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H507" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H509" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H511" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H513" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H515" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H516" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H517" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H518" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E519" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H519" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H520" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H521" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E523" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H523" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H524" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E525" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H525" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H526" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H527" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H529" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E531" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H531" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G533" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H533" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H534" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G535" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H535" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H536" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G537" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H537" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D538" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G539" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H539" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D540" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H540" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H541" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D542" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H542" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D543" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G543" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H543" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H544" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G545" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H545" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D546" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H546" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E547" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G547" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H547" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G548" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H548" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G549" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H549" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H550" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G551" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H551" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H552" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G553" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H553" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G555" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H555" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H556" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E557" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H557" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H558" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H559" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H560" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B561" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H561" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H562" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D563" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E563" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H563" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H564" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D565" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E565" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H565" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D567" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H567" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H568" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G569" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H569" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D571" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H571" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D572" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D573" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H573" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D574" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H574" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D575" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H575" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D576" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D577" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E577" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H577" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H579" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Реестр.xlsx
+++ b/TestData/Реестр.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>Реестр чертежей</t>
   </si>
@@ -974,6 +974,9 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>ПДО-Приходный ордер</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H579"/>
+  <dimension ref="A1:H582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -16454,6 +16457,84 @@
       </c>
       <c r="H579" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H581" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
